--- a/biology/Virologie/Higrevirus/Higrevirus.xlsx
+++ b/biology/Virologie/Higrevirus/Higrevirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibiscus green spot virus 2 (virus 2 des taches vertes de l'Hibiscus) est une espèce de virus du genre Higrevirus, dont c'est l'unique espèce (genre monotypique). Ce sont des virus à ARN linéaire à simple brin à polarité positive, qui infectent des plantes (phytovirus). La famille est rattachée au  groupe IV de la classification Baltimore.
-Cette espèce de virus est l'un des agents causaux de la léprose des agrumes[3].
+Cette espèce de virus est l'un des agents causaux de la léprose des agrumes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Higrevirus », est une combinaison dérivée du nom de l'espèce type, Hibiscus green spot virus,  , suivie du suffixe « -virus » qui caractérise les noms de genres de virus[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Higrevirus », est une combinaison dérivée du nom de l'espèce type, Hibiscus green spot virus,  , suivie du suffixe « -virus » qui caractérise les noms de genres de virus.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces et non-classés du genre Higrevirus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 décembre 2020)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 décembre 2020) :
 Hibiscus green spot virus 2 (espèce-type)
 non-classés
 Hibiscus green spot virus</t>
